--- a/biology/Médecine/Levinus_Lemnius/Levinus_Lemnius.xlsx
+++ b/biology/Médecine/Levinus_Lemnius/Levinus_Lemnius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Levinus Lemnius (20 mai 1505-1er juillet 1568) est un médecin et astrologue catholique néerlandais. Son livre, Occulta naturae miracula (Les Miracles cachés de la nature) est un compendium sur les phénomènes secrets : prodiges de la nature, croyances populaires, traditions sur les simples voulant prouver que « dans les plus petites œuvres de la nature Dieu brille. » Autres dénominations : Lenneus, Lennius, Lemmens, Livinus of Lieven, Levino Lemnio.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Levinus Lemnius est né à Zierikzee. Il étudie la médecine à Louvain, sous l'autorité de Vésale. Après le décès de son épouse, il devient prêtre.
 </t>
